--- a/data/trans_orig/P74A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1187</v>
+        <v>988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13311</v>
+        <v>12280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01062209364185782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00260248575107514</v>
+        <v>0.00216718055432697</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0291931012516379</v>
+        <v>0.02693159620462343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6411</v>
+        <v>7138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004272393850095316</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01454972849416348</v>
+        <v>0.0162007202615225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>6726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2848</v>
+        <v>2789</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14033</v>
+        <v>14799</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007501530876685617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003176350117479794</v>
+        <v>0.003110848820721387</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01565108885041301</v>
+        <v>0.01650637080861426</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>2972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8328</v>
+        <v>8068</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006518808029999322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001991423786069255</v>
+        <v>0.002002992918896543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01826456792251642</v>
+        <v>0.01769497825263962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>2863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7648</v>
+        <v>8738</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006496790461927208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001914355908290555</v>
+        <v>0.001917664104008641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01735685678301513</v>
+        <v>0.01983104813169464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -856,19 +856,19 @@
         <v>5835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2296</v>
+        <v>2023</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12256</v>
+        <v>12678</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006507987486452583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002561330061692083</v>
+        <v>0.002256372875207905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01366925266956455</v>
+        <v>0.01414007368237906</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6126</v>
+        <v>5099</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002235269180239369</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01343646960684997</v>
+        <v>0.01118362435564567</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6137</v>
+        <v>5101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001136745155049854</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006844406639137835</v>
+        <v>0.005689877422025393</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>274118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>253091</v>
+        <v>252709</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>295608</v>
+        <v>295416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.601189694729577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5550740887304664</v>
+        <v>0.5542368323239748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6483215389309541</v>
+        <v>0.6478994384345534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4918</v>
+        <v>6067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002230292100412667</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01116065376116407</v>
+        <v>0.01376948048505028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>274</v>
@@ -990,19 +990,19 @@
         <v>275101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249333</v>
+        <v>247607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304867</v>
+        <v>302260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3068308319500899</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2780915833577292</v>
+        <v>0.2761659887255061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3400306062243831</v>
+        <v>0.3371234399580477</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1019,19 @@
         <v>25266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16312</v>
+        <v>16761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35787</v>
+        <v>35262</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05541268107852988</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03577622150337042</v>
+        <v>0.03676035109686937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07848770059255751</v>
+        <v>0.07733630802275739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -1040,19 +1040,19 @@
         <v>128244</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109465</v>
+        <v>111819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>147410</v>
+        <v>147693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2910488527320975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2484299842715823</v>
+        <v>0.2537728178059683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3345448433542492</v>
+        <v>0.3351885116710018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -1061,19 +1061,19 @@
         <v>153510</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>132683</v>
+        <v>131348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176906</v>
+        <v>178923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.171216181638317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1479864817114355</v>
+        <v>0.1464978209058963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1973110116414985</v>
+        <v>0.1995597333198515</v>
       </c>
     </row>
     <row r="9">
@@ -1137,19 +1137,19 @@
         <v>18810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11205</v>
+        <v>11034</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29185</v>
+        <v>28901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04125424432573162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02457381262501648</v>
+        <v>0.02419943475511865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06400737837693331</v>
+        <v>0.06338602631864723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1158,19 +1158,19 @@
         <v>15084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8913</v>
+        <v>9107</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23030</v>
+        <v>23698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03423365092956837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02022688969562313</v>
+        <v>0.02066936168798192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05226709434233948</v>
+        <v>0.05378321624939165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1179,19 +1179,19 @@
         <v>33895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24219</v>
+        <v>23563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46261</v>
+        <v>46978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03780397060257033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02701238946002844</v>
+        <v>0.02628088677465007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05159702699345182</v>
+        <v>0.05239598152903854</v>
       </c>
     </row>
     <row r="11">
@@ -1208,19 +1208,19 @@
         <v>128930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109386</v>
+        <v>108381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149718</v>
+        <v>148296</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.282767209014065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2399030881899701</v>
+        <v>0.2376997209273588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3283574667498349</v>
+        <v>0.3252389079225216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>291</v>
@@ -1229,19 +1229,19 @@
         <v>291571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>270366</v>
+        <v>271492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>309274</v>
+        <v>309390</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.661718019925899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.613592756053207</v>
+        <v>0.6161473539956008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7018935887149192</v>
+        <v>0.7021572753964148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>412</v>
@@ -1250,19 +1250,19 @@
         <v>420502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>391606</v>
+        <v>391204</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>447063</v>
+        <v>450648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4690027522908348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.436774210680051</v>
+        <v>0.436326011833256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4986281194810763</v>
+        <v>0.5026259416513053</v>
       </c>
     </row>
     <row r="12">
@@ -1354,19 +1354,19 @@
         <v>2834</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7670</v>
+        <v>7633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004440983783973748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001448369513381601</v>
+        <v>0.001441598534369917</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01201960184013273</v>
+        <v>0.01196143256407344</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1375,19 +1375,19 @@
         <v>3057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8139</v>
+        <v>9190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0047647604961997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001544608761290536</v>
+        <v>0.001545969638116549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01268603342036184</v>
+        <v>0.01432395361088824</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1396,19 +1396,19 @@
         <v>5891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2047</v>
+        <v>2855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12765</v>
+        <v>12776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004603303871513392</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001599794695712031</v>
+        <v>0.002231299835129619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00997497685947496</v>
+        <v>0.009983407074657861</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4390</v>
+        <v>5251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001360272445519934</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006878651841746788</v>
+        <v>0.00822907076958143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1446,19 +1446,19 @@
         <v>7599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3295</v>
+        <v>3177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15118</v>
+        <v>15307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0118448777275212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005136601351911744</v>
+        <v>0.004951321715884701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02356422322675476</v>
+        <v>0.02385842733812228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1467,19 +1467,19 @@
         <v>8467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4087</v>
+        <v>3346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16566</v>
+        <v>16442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006616555503967291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003193701739104365</v>
+        <v>0.002614777113790381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01294493186212626</v>
+        <v>0.01284779749754463</v>
       </c>
     </row>
     <row r="15">
@@ -1496,19 +1496,19 @@
         <v>4793</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14044</v>
+        <v>14207</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007510715190953548</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001753479149826526</v>
+        <v>0.00174202998359699</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02200657537394134</v>
+        <v>0.02226189704979209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>4793</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14160</v>
+        <v>12743</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003745342632503085</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0008687129055328943</v>
+        <v>0.0008694540112480027</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01106486728827307</v>
+        <v>0.009957558344695442</v>
       </c>
     </row>
     <row r="16">
@@ -1559,19 +1559,19 @@
         <v>378783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>351947</v>
+        <v>353391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>405174</v>
+        <v>404268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5935594907829448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.551506721239606</v>
+        <v>0.5537702934600431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6349140440628337</v>
+        <v>0.6334951543027497</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1593,19 +1593,19 @@
         <v>378783</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>345782</v>
+        <v>350640</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>413278</v>
+        <v>414284</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2959882793097824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2702007012478559</v>
+        <v>0.2739964390903083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3229432168724637</v>
+        <v>0.3237296956463768</v>
       </c>
     </row>
     <row r="17">
@@ -1622,19 +1622,19 @@
         <v>28694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20012</v>
+        <v>19865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41141</v>
+        <v>41362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0449643497724366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03135967962664594</v>
+        <v>0.0311288745603507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06446904037834784</v>
+        <v>0.06481423065250352</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>129</v>
@@ -1643,19 +1643,19 @@
         <v>139601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118181</v>
+        <v>119280</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163486</v>
+        <v>162526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2175929568983059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1842071953389185</v>
+        <v>0.1859187717224721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2548219351963846</v>
+        <v>0.2533261380861875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>157</v>
@@ -1664,19 +1664,19 @@
         <v>168295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146317</v>
+        <v>142433</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194357</v>
+        <v>192638</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1315088403501375</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1143350705372374</v>
+        <v>0.1112999649056623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1518741497566465</v>
+        <v>0.150531146813902</v>
       </c>
     </row>
     <row r="18">
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9153</v>
+        <v>9751</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002861511062773504</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01434262927393831</v>
+        <v>0.01527986142234597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5335</v>
+        <v>5326</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001652096288357447</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.008316067290619827</v>
+        <v>0.008301087106289457</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10922</v>
+        <v>10415</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002255191013671413</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008534327729262188</v>
+        <v>0.008138162400679485</v>
       </c>
     </row>
     <row r="19">
@@ -1764,19 +1764,19 @@
         <v>19433</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12029</v>
+        <v>12181</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30913</v>
+        <v>30649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03045156105053872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01884904227517076</v>
+        <v>0.01908824215950183</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0484410498473546</v>
+        <v>0.04802824460575287</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1785,19 +1785,19 @@
         <v>16484</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9677</v>
+        <v>9617</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26614</v>
+        <v>25939</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02569280138399447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01508374475789498</v>
+        <v>0.01498927133120992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0414827768090636</v>
+        <v>0.04043010841701081</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1806,19 +1806,19 @@
         <v>35916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25430</v>
+        <v>26069</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50416</v>
+        <v>50155</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02806583577603371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01987185695612152</v>
+        <v>0.02037099445539382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03939580438986502</v>
+        <v>0.03919231775375588</v>
       </c>
     </row>
     <row r="20">
@@ -1835,19 +1835,19 @@
         <v>200924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175230</v>
+        <v>178457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225412</v>
+        <v>226407</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3148511159108591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2745883819362501</v>
+        <v>0.2796446678768744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3532249105549382</v>
+        <v>0.3547836164755792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -1856,19 +1856,19 @@
         <v>473767</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>450132</v>
+        <v>449922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>497744</v>
+        <v>496490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7384525072056213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7016123771253709</v>
+        <v>0.7012856852421671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7758248512358519</v>
+        <v>0.773869654262021</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>620</v>
@@ -1877,19 +1877,19 @@
         <v>674691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>638674</v>
+        <v>635834</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>711710</v>
+        <v>709422</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5272166515423912</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.499072412201688</v>
+        <v>0.4968525197569594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5561435457780529</v>
+        <v>0.5543556069214629</v>
       </c>
     </row>
     <row r="21">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4797</v>
+        <v>3723</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001692529312757775</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01097545094784323</v>
+        <v>0.008518371797111988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3217</v>
+        <v>3980</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0008153308394604602</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003545002283976156</v>
+        <v>0.004386153764926222</v>
       </c>
     </row>
     <row r="23">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4718</v>
+        <v>5414</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003289262214099038</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01003222681478529</v>
+        <v>0.01151152237710173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2065,19 +2065,19 @@
         <v>4656</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1725</v>
+        <v>1893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10170</v>
+        <v>10955</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01065206964593629</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003947242473255702</v>
+        <v>0.004331778931395931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02326757459474996</v>
+        <v>0.02506218933876967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2086,19 +2086,19 @@
         <v>6203</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11771</v>
+        <v>12365</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00683609825347268</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002975750041291854</v>
+        <v>0.002974413981270805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01297208979197253</v>
+        <v>0.01362719586125691</v>
       </c>
     </row>
     <row r="24">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10712</v>
+        <v>10925</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005878558391618554</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0227789411778779</v>
+        <v>0.02323081918898723</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9588</v>
+        <v>10539</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003046719727361617</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01056684636952177</v>
+        <v>0.01161512739745724</v>
       </c>
     </row>
     <row r="25">
@@ -2178,19 +2178,19 @@
         <v>274201</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>250759</v>
+        <v>251349</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>296704</v>
+        <v>294849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5830662321492357</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.533218459853523</v>
+        <v>0.5344723878041147</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6309153319646987</v>
+        <v>0.6269721225170015</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5159</v>
+        <v>5215</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002107795136264897</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01180223184833361</v>
+        <v>0.01192985101233849</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -2220,19 +2220,19 @@
         <v>275123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245345</v>
+        <v>246497</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303540</v>
+        <v>302841</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3032050051849428</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2703877243183484</v>
+        <v>0.2716568247519679</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3345220178029971</v>
+        <v>0.3337523851205871</v>
       </c>
     </row>
     <row r="26">
@@ -2249,19 +2249,19 @@
         <v>19421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11880</v>
+        <v>11948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29567</v>
+        <v>29217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0412972842818211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02526279155690234</v>
+        <v>0.02540622233479809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06287236998299783</v>
+        <v>0.06212757002766597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>107</v>
@@ -2270,19 +2270,19 @@
         <v>101794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>84754</v>
+        <v>85619</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>117821</v>
+        <v>119242</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2328809373722092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.193896503856227</v>
+        <v>0.1958775555348883</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2695462988112642</v>
+        <v>0.2727970622028371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>126</v>
@@ -2291,19 +2291,19 @@
         <v>121215</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104405</v>
+        <v>102523</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>143688</v>
+        <v>140917</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1335875976747229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1150619476623157</v>
+        <v>0.1129881066483561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.158353911161521</v>
+        <v>0.155300936997614</v>
       </c>
     </row>
     <row r="27">
@@ -2367,19 +2367,19 @@
         <v>20893</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13123</v>
+        <v>12850</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32728</v>
+        <v>32857</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04442645815428707</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.027905649555567</v>
+        <v>0.02732430311359461</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06959240764243842</v>
+        <v>0.06986795706394584</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2388,19 +2388,19 @@
         <v>13599</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8539</v>
+        <v>7622</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23884</v>
+        <v>21797</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03111218038424046</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01953579764756438</v>
+        <v>0.01743784587833569</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0546422168819503</v>
+        <v>0.04986718565764167</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -2409,19 +2409,19 @@
         <v>34492</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24247</v>
+        <v>25200</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48671</v>
+        <v>49657</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0380126600656891</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02672189015556394</v>
+        <v>0.02777209784945218</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05363881621674872</v>
+        <v>0.05472527909755762</v>
       </c>
     </row>
     <row r="29">
@@ -2438,19 +2438,19 @@
         <v>151448</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>130093</v>
+        <v>131186</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>173561</v>
+        <v>172309</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3220422048089385</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2766324085914303</v>
+        <v>0.2789558174163757</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3690617210664</v>
+        <v>0.3663997608214282</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>315</v>
@@ -2459,19 +2459,19 @@
         <v>315397</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>297665</v>
+        <v>295745</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>332830</v>
+        <v>333074</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7215544881485914</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6809891822795541</v>
+        <v>0.6765959472312189</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7614389028385662</v>
+        <v>0.7619973021923512</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>453</v>
@@ -2480,19 +2480,19 @@
         <v>466845</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>435374</v>
+        <v>438174</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>498577</v>
+        <v>497296</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5144965882543505</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4798127906766365</v>
+        <v>0.4828983498123383</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.549467402507694</v>
+        <v>0.5480552176101189</v>
       </c>
     </row>
     <row r="30">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6118</v>
+        <v>6140</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003021458499657381</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01063171333346114</v>
+        <v>0.01066961923896103</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2605,19 +2605,19 @@
         <v>5991</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2203</v>
+        <v>2212</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13872</v>
+        <v>13705</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01010966019161779</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003718394284203011</v>
+        <v>0.003733522255668502</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02341059090601074</v>
+        <v>0.02312890977137837</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2626,19 +2626,19 @@
         <v>7729</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3212</v>
+        <v>3383</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15360</v>
+        <v>16668</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006617536747490308</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002750252784421797</v>
+        <v>0.002896129030751113</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01315047166334086</v>
+        <v>0.0142701957628692</v>
       </c>
     </row>
     <row r="32">
@@ -2655,19 +2655,19 @@
         <v>3300</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9399</v>
+        <v>10274</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005734477211579886</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001452276235219691</v>
+        <v>0.00145945527303645</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01633407892931572</v>
+        <v>0.01785413906167638</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2676,19 +2676,19 @@
         <v>5154</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11515</v>
+        <v>11556</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008697091123753876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003342477406849443</v>
+        <v>0.003321941323876099</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0194319210445652</v>
+        <v>0.01950211998218226</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2697,19 +2697,19 @@
         <v>8453</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3684</v>
+        <v>3833</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16680</v>
+        <v>15579</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007237508856175983</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003153920925256684</v>
+        <v>0.003281621126712121</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01428048266848957</v>
+        <v>0.01333802747975223</v>
       </c>
     </row>
     <row r="33">
@@ -2726,19 +2726,19 @@
         <v>7608</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3311</v>
+        <v>3373</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15311</v>
+        <v>15227</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01322203288737996</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.005753349290155487</v>
+        <v>0.005861895408639104</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02660752805076416</v>
+        <v>0.02646143463340257</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>7608</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3237</v>
+        <v>3337</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15165</v>
+        <v>15634</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006514059987516231</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002771389159808099</v>
+        <v>0.002856954471577947</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0129837933216953</v>
+        <v>0.01338489920248965</v>
       </c>
     </row>
     <row r="34">
@@ -2789,19 +2789,19 @@
         <v>294104</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>269402</v>
+        <v>272003</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>317682</v>
+        <v>318308</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5110942000329186</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4681677940531926</v>
+        <v>0.4726861830470326</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5520682721255578</v>
+        <v>0.5531555058344415</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11129</v>
+        <v>11150</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0046960017227229</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01878110782926642</v>
+        <v>0.0188169801911568</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>321</v>
@@ -2831,19 +2831,19 @@
         <v>296887</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>270174</v>
+        <v>270201</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>329233</v>
+        <v>324859</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2541817101202021</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2313114909953543</v>
+        <v>0.2313340932862077</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2818755499953355</v>
+        <v>0.2781306086995191</v>
       </c>
     </row>
     <row r="35">
@@ -2860,19 +2860,19 @@
         <v>19352</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12380</v>
+        <v>11946</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29906</v>
+        <v>29845</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03362946284074178</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02151370146180393</v>
+        <v>0.02076003672811757</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05197069911978421</v>
+        <v>0.05186481030398946</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -2881,19 +2881,19 @@
         <v>147066</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>127231</v>
+        <v>127469</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>167404</v>
+        <v>169447</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2481833541509801</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2147103185280496</v>
+        <v>0.2151114934972618</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2825052718386908</v>
+        <v>0.285952268487263</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>166</v>
@@ -2902,19 +2902,19 @@
         <v>166418</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>145435</v>
+        <v>144058</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>191947</v>
+        <v>192910</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1424797206436157</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1245155302588352</v>
+        <v>0.1233359560200208</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1643370454541172</v>
+        <v>0.1651610717148775</v>
       </c>
     </row>
     <row r="36">
@@ -2978,19 +2978,19 @@
         <v>22351</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14882</v>
+        <v>14767</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33839</v>
+        <v>33066</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03884098593119171</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02586118486024159</v>
+        <v>0.02566162811962449</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05880575584801302</v>
+        <v>0.0574625635961771</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -2999,19 +2999,19 @@
         <v>18315</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11364</v>
+        <v>11155</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28069</v>
+        <v>29035</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03090724040218046</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01917708332439305</v>
+        <v>0.01882535025644107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0473683757848832</v>
+        <v>0.04899825922544884</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -3020,19 +3020,19 @@
         <v>40665</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29288</v>
+        <v>29736</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54908</v>
+        <v>55089</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03481593543734376</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02507538670077037</v>
+        <v>0.02545895644480724</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04700999262438318</v>
+        <v>0.04716516956596009</v>
       </c>
     </row>
     <row r="38">
@@ -3049,19 +3049,19 @@
         <v>226987</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>203366</v>
+        <v>204012</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>250250</v>
+        <v>251052</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3944573825965307</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3534093591539641</v>
+        <v>0.3545314346690411</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4348848621051623</v>
+        <v>0.4362787740132109</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>392</v>
@@ -3070,19 +3070,19 @@
         <v>413262</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>391111</v>
+        <v>389898</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>434319</v>
+        <v>435035</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6974066524087449</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6600254412985044</v>
+        <v>0.6579786409791255</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7329412485675624</v>
+        <v>0.7341491609845432</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>626</v>
@@ -3091,19 +3091,19 @@
         <v>640249</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>605854</v>
+        <v>606722</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>674630</v>
+        <v>671706</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5481535282076559</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5187062653194228</v>
+        <v>0.5194490559430756</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.57758903784543</v>
+        <v>0.5750861823087925</v>
       </c>
     </row>
     <row r="39">
@@ -3195,19 +3195,19 @@
         <v>9416</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4669</v>
+        <v>3922</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17627</v>
+        <v>17390</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00440032413852534</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002182157239621809</v>
+        <v>0.001832688631766641</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.00823736041308961</v>
+        <v>0.008126634023887086</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3216,19 +3216,19 @@
         <v>11670</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5782</v>
+        <v>6442</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20895</v>
+        <v>20313</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005525876946830347</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002738010897781049</v>
+        <v>0.003050317180785485</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009894187377687581</v>
+        <v>0.009618415264343703</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -3237,19 +3237,19 @@
         <v>21086</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13508</v>
+        <v>13245</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32987</v>
+        <v>32564</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00495940014815589</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003176991687258756</v>
+        <v>0.003115121731830152</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.007758458616626425</v>
+        <v>0.007659022973183586</v>
       </c>
     </row>
     <row r="41">
@@ -3266,19 +3266,19 @@
         <v>8687</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4229</v>
+        <v>4269</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17210</v>
+        <v>17378</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004059707050957646</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00197652658440224</v>
+        <v>0.001995242819820804</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008042523240578693</v>
+        <v>0.00812119647749353</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -3287,19 +3287,19 @@
         <v>20272</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>12843</v>
+        <v>12712</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>31836</v>
+        <v>30876</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009598916062210364</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006081279041168122</v>
+        <v>0.00601910635823417</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01507471624087018</v>
+        <v>0.0146201252296584</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -3308,19 +3308,19 @@
         <v>28959</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>19105</v>
+        <v>19838</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>40998</v>
+        <v>39227</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006811100719624638</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004493507179108213</v>
+        <v>0.004665913367822144</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009642676966820564</v>
+        <v>0.009226187151745427</v>
       </c>
     </row>
     <row r="42">
@@ -3337,19 +3337,19 @@
         <v>16185</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9025</v>
+        <v>9114</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>27708</v>
+        <v>27885</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.00756379019022654</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004217500453661903</v>
+        <v>0.004259292005507753</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0129485830898297</v>
+        <v>0.0130312731793054</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3371,19 +3371,19 @@
         <v>16185</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>9054</v>
+        <v>8647</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>27576</v>
+        <v>27417</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003806761993919445</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.002129596307155088</v>
+        <v>0.002033824938618138</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.006485916860925593</v>
+        <v>0.006448546924600469</v>
       </c>
     </row>
     <row r="43">
@@ -3400,19 +3400,19 @@
         <v>1221206</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1174623</v>
+        <v>1172779</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1265965</v>
+        <v>1271645</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5707027636504898</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5489333041492231</v>
+        <v>0.5480712268112866</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.591619702091337</v>
+        <v>0.5942743338128593</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>4</v>
@@ -3421,19 +3421,19 @@
         <v>4687</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1802</v>
+        <v>988</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14032</v>
+        <v>12668</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.002219248609838984</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0008530458406448177</v>
+        <v>0.0004680496593621847</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.006644189242372621</v>
+        <v>0.005998394603768226</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1220</v>
@@ -3442,19 +3442,19 @@
         <v>1225893</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1169027</v>
+        <v>1163591</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1283123</v>
+        <v>1283176</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2883299662263554</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2749551265470488</v>
+        <v>0.2736765767164526</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3017904648545011</v>
+        <v>0.3018028475381591</v>
       </c>
     </row>
     <row r="44">
@@ -3471,19 +3471,19 @@
         <v>92733</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>74397</v>
+        <v>77256</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>111321</v>
+        <v>113317</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04333661765596094</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03476765965418548</v>
+        <v>0.03610377803012736</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05202310251559674</v>
+        <v>0.05295587311666234</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>515</v>
@@ -3492,19 +3492,19 @@
         <v>516705</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>476757</v>
+        <v>477406</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>555714</v>
+        <v>556100</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2446666313625367</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2257509787739932</v>
+        <v>0.2260579667808265</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2631378249313325</v>
+        <v>0.2633207312883296</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>608</v>
@@ -3513,19 +3513,19 @@
         <v>609438</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>565663</v>
+        <v>566512</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>653983</v>
+        <v>655289</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1433397271070765</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1330440048059235</v>
+        <v>0.1332435577559684</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1538168026505681</v>
+        <v>0.1541239214011492</v>
       </c>
     </row>
     <row r="45">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>9129</v>
+        <v>9172</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0008533800239783727</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.004266300235563662</v>
+        <v>0.004286224018244885</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>5309</v>
+        <v>5287</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0005018917631511793</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.002513871846657152</v>
+        <v>0.002503478400842533</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>11251</v>
+        <v>10556</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.000678791454836801</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.002646330804077804</v>
+        <v>0.002482705246453084</v>
       </c>
     </row>
     <row r="46">
@@ -3613,19 +3613,19 @@
         <v>81486</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>63295</v>
+        <v>64281</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>101738</v>
+        <v>101361</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03808078650494138</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02957956430941163</v>
+        <v>0.03004006871325818</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04754487283825175</v>
+        <v>0.04736885862701746</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>63</v>
@@ -3634,19 +3634,19 @@
         <v>63482</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>50050</v>
+        <v>49016</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>81330</v>
+        <v>81976</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0300595921749127</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02369927745280994</v>
+        <v>0.02320952269498096</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03851104719901332</v>
+        <v>0.03881655041758692</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>141</v>
@@ -3655,19 +3655,19 @@
         <v>144968</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>121966</v>
+        <v>123618</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>171514</v>
+        <v>169585</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03409656001159998</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02868639630280831</v>
+        <v>0.02907486023470003</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04033997204435781</v>
+        <v>0.03988626912106294</v>
       </c>
     </row>
     <row r="47">
@@ -3684,19 +3684,19 @@
         <v>708289</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>664660</v>
+        <v>666688</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>749574</v>
+        <v>752425</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.33100263078492</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3106136728106058</v>
+        <v>0.3115612154248435</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3502959932735584</v>
+        <v>0.3516285700895069</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1437</v>
@@ -3705,19 +3705,19 @@
         <v>1493998</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1452216</v>
+        <v>1454450</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1534262</v>
+        <v>1535753</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.7074278430805198</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6876438433065776</v>
+        <v>0.6887014987164419</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.7264935679783449</v>
+        <v>0.7271994659264939</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2111</v>
@@ -3726,19 +3726,19 @@
         <v>2202287</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2142040</v>
+        <v>2136549</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2270873</v>
+        <v>2264724</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5179776923384313</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5038076446448293</v>
+        <v>0.5025161060265164</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5341092101483672</v>
+        <v>0.532662879505728</v>
       </c>
     </row>
     <row r="48">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10573</v>
+        <v>9305</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004035866722605597</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02297995251421221</v>
+        <v>0.02022270482440244</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9848</v>
+        <v>9329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002032051843456087</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01077654096304412</v>
+        <v>0.01020825300374358</v>
       </c>
     </row>
     <row r="5">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11637</v>
+        <v>11349</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006853040960016041</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02564807145895056</v>
+        <v>0.02501431756911189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4154,19 +4154,19 @@
         <v>9483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4248</v>
+        <v>4193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16788</v>
+        <v>17283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02060960154497779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00923237953537936</v>
+        <v>0.009114051408659674</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03648671271109127</v>
+        <v>0.03756326803900449</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4175,19 +4175,19 @@
         <v>12592</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6236</v>
+        <v>6505</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22570</v>
+        <v>22805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01377944517939013</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006824018857348783</v>
+        <v>0.007118302588226148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02469797573007832</v>
+        <v>0.02495588237595614</v>
       </c>
     </row>
     <row r="6">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5077</v>
+        <v>5531</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002019172697675523</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0111887849075715</v>
+        <v>0.01218991848742548</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9050</v>
+        <v>9401</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004086159590218941</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01967012408729542</v>
+        <v>0.0204330350197771</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10428</v>
+        <v>10460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003059896986677989</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0114114792545945</v>
+        <v>0.01144608386669956</v>
       </c>
     </row>
     <row r="7">
@@ -4275,19 +4275,19 @@
         <v>205284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183936</v>
+        <v>183958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226418</v>
+        <v>226406</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4524490045006284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4053984467881339</v>
+        <v>0.4054469454834151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4990295867705245</v>
+        <v>0.4990023909457021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6026</v>
+        <v>5235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002253542572062923</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0130973937692037</v>
+        <v>0.01137704093435078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -4317,19 +4317,19 @@
         <v>206321</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>182931</v>
+        <v>181482</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>233760</v>
+        <v>233830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2257763759910109</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2001816393885603</v>
+        <v>0.1985959282360133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2558029264543979</v>
+        <v>0.255879573425359</v>
       </c>
     </row>
     <row r="8">
@@ -4346,19 +4346,19 @@
         <v>38705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26599</v>
+        <v>28143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52636</v>
+        <v>52433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08530697734238327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05862428994455607</v>
+        <v>0.0620270947893346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1160115067642551</v>
+        <v>0.1155633011196345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>98</v>
@@ -4367,19 +4367,19 @@
         <v>104430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86830</v>
+        <v>87108</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123655</v>
+        <v>123474</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.226967637887051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1887162743180851</v>
+        <v>0.1893199248801183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2687510980612927</v>
+        <v>0.2683569837366691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>134</v>
@@ -4388,19 +4388,19 @@
         <v>143135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121661</v>
+        <v>120863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>166158</v>
+        <v>164665</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1566328724202942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1331335146420806</v>
+        <v>0.1322598799534244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1818266923379878</v>
+        <v>0.1801924484801249</v>
       </c>
     </row>
     <row r="9">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6833</v>
+        <v>5191</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002294180054770052</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01505941685221374</v>
+        <v>0.01144013536217817</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5256</v>
+        <v>5240</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001139064405533274</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005751664724665145</v>
+        <v>0.005734400925062196</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>61259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46812</v>
+        <v>47574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77861</v>
+        <v>77435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1350158189597371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1031753259141028</v>
+        <v>0.1048532157566479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.171607897249406</v>
+        <v>0.1706681580427351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -4501,19 +4501,19 @@
         <v>79660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64981</v>
+        <v>66023</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97926</v>
+        <v>98247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1731322472262002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1412290222153958</v>
+        <v>0.1434940859320114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2128320507949293</v>
+        <v>0.2135297634743198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -4522,19 +4522,19 @@
         <v>140919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120475</v>
+        <v>118535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163206</v>
+        <v>161961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1542073739957326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1318354688409129</v>
+        <v>0.1297122697692415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1785963385017889</v>
+        <v>0.1772341559821747</v>
       </c>
     </row>
     <row r="11">
@@ -4551,19 +4551,19 @@
         <v>143403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125295</v>
+        <v>122225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166056</v>
+        <v>164032</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3160618054847896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2761527324146213</v>
+        <v>0.2693854048088588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3659901831385225</v>
+        <v>0.3615296507546766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -4572,19 +4572,19 @@
         <v>261763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>241857</v>
+        <v>240305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283510</v>
+        <v>283149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5689149444568836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5256493641795481</v>
+        <v>0.5222765082810824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6161788629388135</v>
+        <v>0.6153931806676954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>381</v>
@@ -4593,19 +4593,19 @@
         <v>405166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>374085</v>
+        <v>374705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>436766</v>
+        <v>435881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4433729191779049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4093608968520842</v>
+        <v>0.4100388285566339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4779524352607994</v>
+        <v>0.4769838663289647</v>
       </c>
     </row>
     <row r="12">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11730</v>
+        <v>11447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004676419531137631</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01756032239223141</v>
+        <v>0.01713655445045282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13966</v>
+        <v>13168</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00231249265409773</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01033901343880885</v>
+        <v>0.009747794966535436</v>
       </c>
     </row>
     <row r="14">
@@ -4760,19 +4760,19 @@
         <v>4403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10021</v>
+        <v>10923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006591244450944039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001675713327795185</v>
+        <v>0.001688567956189738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01500233297521188</v>
+        <v>0.01635236242516132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -4781,19 +4781,19 @@
         <v>19383</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10937</v>
+        <v>11668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31562</v>
+        <v>30931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02838483728666268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01601610575059308</v>
+        <v>0.01708783167798293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04622095757241316</v>
+        <v>0.04529723876788645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -4802,19 +4802,19 @@
         <v>23785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14852</v>
+        <v>14903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36509</v>
+        <v>37216</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01760789073526205</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01099497235055007</v>
+        <v>0.01103267484802383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02702674749391752</v>
+        <v>0.02755046874498601</v>
       </c>
     </row>
     <row r="15">
@@ -4831,19 +4831,19 @@
         <v>3908</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9737</v>
+        <v>8955</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005850481750389384</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001473253857915242</v>
+        <v>0.001454111899347204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01457685045600613</v>
+        <v>0.01340524589057814</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10677</v>
+        <v>11117</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004346721649133283</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01563655310205015</v>
+        <v>0.01628082779348171</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4873,19 +4873,19 @@
         <v>6876</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2976</v>
+        <v>2938</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15716</v>
+        <v>15034</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005090332046901431</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002203116261886385</v>
+        <v>0.002174943725628076</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01163436967379937</v>
+        <v>0.01112966486957588</v>
       </c>
     </row>
     <row r="16">
@@ -4902,19 +4902,19 @@
         <v>275275</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246863</v>
+        <v>248313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>303332</v>
+        <v>302218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4120951201379809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3695620660144051</v>
+        <v>0.3717327398066779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4540977501748772</v>
+        <v>0.4524294290877289</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4789</v>
+        <v>5443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00160145068399186</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00701343613000525</v>
+        <v>0.007971610785583333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -4944,19 +4944,19 @@
         <v>276369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246611</v>
+        <v>244984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>308824</v>
+        <v>304770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.20459085076783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.182562124855314</v>
+        <v>0.1813571025240557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2286170381946103</v>
+        <v>0.2256157330499289</v>
       </c>
     </row>
     <row r="17">
@@ -4973,19 +4973,19 @@
         <v>36958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26383</v>
+        <v>25030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53403</v>
+        <v>52090</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05532798934166232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03949627953492693</v>
+        <v>0.03747104886315058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07994638722452355</v>
+        <v>0.07798054730984853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -4994,19 +4994,19 @@
         <v>150592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129455</v>
+        <v>128275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174304</v>
+        <v>175076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2205354208228775</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1895809785900981</v>
+        <v>0.1878532235436172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.255261358650903</v>
+        <v>0.256391184293375</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>169</v>
@@ -5015,19 +5015,19 @@
         <v>187550</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165389</v>
+        <v>161542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218385</v>
+        <v>213107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1388402330496528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1224345480782421</v>
+        <v>0.1195867359000364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1616667836993109</v>
+        <v>0.1577590465316931</v>
       </c>
     </row>
     <row r="18">
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6951</v>
+        <v>6366</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002983699110607535</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01040635971078213</v>
+        <v>0.009530198495332575</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5427</v>
+        <v>5006</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001452981789238382</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007948038568688217</v>
+        <v>0.007330587820541727</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -5086,19 +5086,19 @@
         <v>2985</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8872</v>
+        <v>8869</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002209922550775489</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0007123031532949866</v>
+        <v>0.0007098982628556585</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006567828442600614</v>
+        <v>0.006565603078560341</v>
       </c>
     </row>
     <row r="19">
@@ -5115,19 +5115,19 @@
         <v>104011</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85951</v>
+        <v>86501</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127418</v>
+        <v>124119</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1557071318274292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1286713928523929</v>
+        <v>0.1294939713925758</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1907484176845876</v>
+        <v>0.1858101477800585</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -5136,19 +5136,19 @@
         <v>108552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>90397</v>
+        <v>90994</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131145</v>
+        <v>132606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1589693322494612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1323827699302232</v>
+        <v>0.1332563879425131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1920564536463639</v>
+        <v>0.1941954427917258</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>193</v>
@@ -5157,19 +5157,19 @@
         <v>212562</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>185112</v>
+        <v>186407</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>241541</v>
+        <v>240959</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1573561719113193</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1370350881511564</v>
+        <v>0.1379936763294453</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1788087762666604</v>
+        <v>0.1783774763717159</v>
       </c>
     </row>
     <row r="20">
@@ -5186,19 +5186,19 @@
         <v>238317</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209548</v>
+        <v>212329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264369</v>
+        <v>262724</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.356767913849849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3137004642983781</v>
+        <v>0.3178627409985055</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3957686746132785</v>
+        <v>0.3933065959490716</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -5207,19 +5207,19 @@
         <v>399267</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>369517</v>
+        <v>371459</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>427334</v>
+        <v>425306</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5847092555186351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5411411111932916</v>
+        <v>0.5439862253808063</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.625812044452854</v>
+        <v>0.6228419438933478</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>579</v>
@@ -5228,19 +5228,19 @@
         <v>637584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>596759</v>
+        <v>597584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>672684</v>
+        <v>674670</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4719921062841612</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4417704846148137</v>
+        <v>0.4423806001492726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4979758313544261</v>
+        <v>0.4994459672969892</v>
       </c>
     </row>
     <row r="21">
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7146</v>
+        <v>8344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004041573868245943</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01391632868630437</v>
+        <v>0.0162504544127527</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7410</v>
+        <v>7039</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00204987016560438</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007319408623182958</v>
+        <v>0.006952819426557967</v>
       </c>
     </row>
     <row r="23">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7129</v>
+        <v>7490</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00421386327485889</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01428967429608138</v>
+        <v>0.01501306147363464</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -5416,19 +5416,19 @@
         <v>15179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8214</v>
+        <v>7928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26150</v>
+        <v>26070</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02956117379544975</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01599578738010709</v>
+        <v>0.01543911310714511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05092592083357492</v>
+        <v>0.05076995324554971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -5437,19 +5437,19 @@
         <v>17282</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9394</v>
+        <v>9381</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29321</v>
+        <v>29189</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01706991819512179</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009279205970972185</v>
+        <v>0.00926596575539029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02896172185092072</v>
+        <v>0.02883207241410515</v>
       </c>
     </row>
     <row r="24">
@@ -5466,19 +5466,19 @@
         <v>7241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2049</v>
+        <v>2060</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17118</v>
+        <v>16821</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01451395011890757</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004107290256164338</v>
+        <v>0.004129147595083277</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03430982142582033</v>
+        <v>0.03371584751225401</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6507</v>
+        <v>6888</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.00385494372361181</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01267235327133174</v>
+        <v>0.01341507570524681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -5508,19 +5508,19 @@
         <v>9221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4015</v>
+        <v>4004</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20807</v>
+        <v>20068</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009107744537371124</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003965670289164269</v>
+        <v>0.003954731378475476</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02055184777991901</v>
+        <v>0.01982237461188906</v>
       </c>
     </row>
     <row r="25">
@@ -5537,19 +5537,19 @@
         <v>218525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>196086</v>
+        <v>193781</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>242705</v>
+        <v>240673</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4380021045741546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3930261758493445</v>
+        <v>0.3884073883292683</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4864671943453743</v>
+        <v>0.4823943790541396</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -5571,19 +5571,19 @@
         <v>218525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191917</v>
+        <v>194133</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>247264</v>
+        <v>249333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.215849181997941</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1895667255414072</v>
+        <v>0.1917559773002231</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2442361587814625</v>
+        <v>0.2462804093705137</v>
       </c>
     </row>
     <row r="26">
@@ -5600,19 +5600,19 @@
         <v>20595</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12731</v>
+        <v>12817</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32278</v>
+        <v>31860</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04127951894110164</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02551847119125015</v>
+        <v>0.02568991298144093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06469738379312931</v>
+        <v>0.06385855880527536</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -5621,19 +5621,19 @@
         <v>105422</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88260</v>
+        <v>88785</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>126301</v>
+        <v>126362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2053080686887268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1718858597368381</v>
+        <v>0.172907825738158</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2459687006330676</v>
+        <v>0.2460876436922798</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>114</v>
@@ -5642,19 +5642,19 @@
         <v>126017</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>105158</v>
+        <v>106035</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>147757</v>
+        <v>150121</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1244741459345058</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1038704433083135</v>
+        <v>0.1047363681824019</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1459481951958833</v>
+        <v>0.1482826127515214</v>
       </c>
     </row>
     <row r="27">
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6847</v>
+        <v>6801</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.00383098521564628</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01372408900056998</v>
+        <v>0.01363224233991223</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6405</v>
+        <v>6172</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.002305218709787691</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01247391234654481</v>
+        <v>0.01202019507266207</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -5713,19 +5713,19 @@
         <v>3095</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9028</v>
+        <v>9111</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.003057122522052766</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0009314402420130097</v>
+        <v>0.000932878494325245</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008917577159896474</v>
+        <v>0.008999525759715259</v>
       </c>
     </row>
     <row r="28">
@@ -5742,19 +5742,19 @@
         <v>53309</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39701</v>
+        <v>40021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68472</v>
+        <v>68605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1068504738616094</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07957552117509396</v>
+        <v>0.08021640207713322</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1372415116853918</v>
+        <v>0.137507991639117</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>64</v>
@@ -5763,19 +5763,19 @@
         <v>69276</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55797</v>
+        <v>53442</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>85309</v>
+        <v>86433</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1349130183290511</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1086631201881142</v>
+        <v>0.1040765720293687</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1661386016521097</v>
+        <v>0.16832744068785</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>112</v>
@@ -5784,19 +5784,19 @@
         <v>122585</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>102334</v>
+        <v>101039</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>146621</v>
+        <v>147247</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1210836846230697</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1010811987012202</v>
+        <v>0.09980179423173642</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1448258664548892</v>
+        <v>0.1454438985493916</v>
       </c>
     </row>
     <row r="29">
@@ -5813,19 +5813,19 @@
         <v>195229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>172283</v>
+        <v>173334</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>217490</v>
+        <v>220603</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3913091040137216</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3453161035387637</v>
+        <v>0.3474236860579816</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4359271407422674</v>
+        <v>0.4421680095693752</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>285</v>
@@ -5834,19 +5834,19 @@
         <v>318368</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>294187</v>
+        <v>295310</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>340092</v>
+        <v>339075</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6200160028851269</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5729248680943337</v>
+        <v>0.5751111849831766</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.66232344207299</v>
+        <v>0.6603431230571561</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>459</v>
@@ -5855,19 +5855,19 @@
         <v>513597</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>481269</v>
+        <v>478423</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>548790</v>
+        <v>550519</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5073083320243335</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4753764806938056</v>
+        <v>0.4725650057085152</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5420705526670891</v>
+        <v>0.5437784275560608</v>
       </c>
     </row>
     <row r="30">
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10937</v>
+        <v>11293</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00540292460072291</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01846360938441839</v>
+        <v>0.01906428536753969</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10304</v>
+        <v>11579</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002607333581530446</v>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008394509080187363</v>
+        <v>0.009433549477522065</v>
       </c>
     </row>
     <row r="32">
@@ -6022,19 +6022,19 @@
         <v>6960</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2972</v>
+        <v>2935</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14149</v>
+        <v>13764</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01174911086294975</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005017945329119931</v>
+        <v>0.004955513168397619</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02388688127334549</v>
+        <v>0.02323651662902006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -6043,19 +6043,19 @@
         <v>13848</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7215</v>
+        <v>7448</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24281</v>
+        <v>24889</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02180412532628058</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01136081772361004</v>
+        <v>0.01172648357180522</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03823022925908773</v>
+        <v>0.03918870211875523</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -6064,19 +6064,19 @@
         <v>20808</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12316</v>
+        <v>12081</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32655</v>
+        <v>32128</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01695179463310211</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01003330679870972</v>
+        <v>0.009842623178259789</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02660344074624849</v>
+        <v>0.02617435367064351</v>
       </c>
     </row>
     <row r="33">
@@ -6093,19 +6093,19 @@
         <v>9852</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5033</v>
+        <v>4983</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>17790</v>
+        <v>17712</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01663206003034272</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008496809542290802</v>
+        <v>0.008412531018402589</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03003330118709139</v>
+        <v>0.02990176263349998</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -6114,19 +6114,19 @@
         <v>2858</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7678</v>
+        <v>7671</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.004499997320227361</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00146958071738361</v>
+        <v>0.001471493726385278</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01208970372573117</v>
+        <v>0.01207840623124177</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>13</v>
@@ -6135,19 +6135,19 @@
         <v>12710</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>6663</v>
+        <v>7377</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>20229</v>
+        <v>21849</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01035466619957553</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.005428311788117601</v>
+        <v>0.006010231676676101</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01648017782129066</v>
+        <v>0.01780043447442469</v>
       </c>
     </row>
     <row r="34">
@@ -6164,19 +6164,19 @@
         <v>264367</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>239647</v>
+        <v>238901</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>287142</v>
+        <v>287196</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4463052428219152</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4045729046995352</v>
+        <v>0.4033127284983187</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4847538813403644</v>
+        <v>0.4848455460970864</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9477</v>
+        <v>11343</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003005434831656697</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01492200461982501</v>
+        <v>0.01785928944800311</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>254</v>
@@ -6206,19 +6206,19 @@
         <v>266276</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>236306</v>
+        <v>237864</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>297605</v>
+        <v>295512</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2169322543738635</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1925155793498887</v>
+        <v>0.1937852661024669</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2424557582955856</v>
+        <v>0.240750072950937</v>
       </c>
     </row>
     <row r="35">
@@ -6235,19 +6235,19 @@
         <v>28170</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18422</v>
+        <v>18229</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41778</v>
+        <v>41530</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04755613376318957</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03110085816324298</v>
+        <v>0.03077478953219353</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07052912125356803</v>
+        <v>0.07011167402395677</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>170</v>
@@ -6256,19 +6256,19 @@
         <v>179171</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>156308</v>
+        <v>156334</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>204365</v>
+        <v>205096</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2821069225477274</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2461092948146068</v>
+        <v>0.2461508477785443</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3217759660747916</v>
+        <v>0.322927314738074</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>195</v>
@@ -6277,19 +6277,19 @@
         <v>207340</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>183145</v>
+        <v>181661</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>236862</v>
+        <v>234744</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1689178271288214</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1492063684738704</v>
+        <v>0.147997535986118</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1929688956359886</v>
+        <v>0.1912433145551433</v>
       </c>
     </row>
     <row r="36">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6777</v>
+        <v>6580</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003163732649460058</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01144083625326572</v>
+        <v>0.01110809384587254</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5671</v>
+        <v>5838</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001787213169199808</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008929263026974473</v>
+        <v>0.009191316828692999</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -6348,19 +6348,19 @@
         <v>3009</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9233</v>
+        <v>7788</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002451491450268763</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0007601273943164817</v>
+        <v>0.0007552101542053169</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007521917374544879</v>
+        <v>0.006344580922106238</v>
       </c>
     </row>
     <row r="37">
@@ -6377,19 +6377,19 @@
         <v>62180</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>48599</v>
+        <v>49025</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78916</v>
+        <v>79397</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1049731099869562</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08204490499991456</v>
+        <v>0.08276429975323496</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1332261671819824</v>
+        <v>0.1340388017721862</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -6398,19 +6398,19 @@
         <v>59708</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46433</v>
+        <v>46911</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>77102</v>
+        <v>75407</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09401054420427774</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07310970127647974</v>
+        <v>0.07386204761644639</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1213988848185446</v>
+        <v>0.1187295567636419</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>115</v>
@@ -6419,19 +6419,19 @@
         <v>121888</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>101260</v>
+        <v>101938</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>147539</v>
+        <v>143641</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0993008393716561</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0824954585391396</v>
+        <v>0.0830479104747005</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1201984254108447</v>
+        <v>0.1170225061129057</v>
       </c>
     </row>
     <row r="38">
@@ -6448,19 +6448,19 @@
         <v>215743</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>193940</v>
+        <v>192788</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>241066</v>
+        <v>240383</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3642176852844636</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3274095663327272</v>
+        <v>0.3254645507636813</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4069680641267521</v>
+        <v>0.4058151417987542</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>361</v>
@@ -6469,19 +6469,19 @@
         <v>376488</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>352831</v>
+        <v>350016</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>403721</v>
+        <v>401937</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5927857626006304</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5555380667101671</v>
+        <v>0.5511057749424694</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6356654213843544</v>
+        <v>0.6328559143293763</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>564</v>
@@ -6490,19 +6490,19 @@
         <v>592231</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>553878</v>
+        <v>561203</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>626793</v>
+        <v>627875</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4824837932611822</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4512386514288542</v>
+        <v>0.457206166007325</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5106414696933266</v>
+        <v>0.511522769884742</v>
       </c>
     </row>
     <row r="39">
@@ -6594,19 +6594,19 @@
         <v>6324</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1335</v>
+        <v>1897</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15386</v>
+        <v>18161</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002857795363263976</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0006034238936828362</v>
+        <v>0.0008570134587363209</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006952467239437477</v>
+        <v>0.008206611917421468</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -6615,19 +6615,19 @@
         <v>3932</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11351</v>
+        <v>12027</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001715962505506526</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0004350668499248572</v>
+        <v>0.0004346374386918178</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.004953380202058913</v>
+        <v>0.005248474303804134</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -6636,19 +6636,19 @@
         <v>10256</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4459</v>
+        <v>4206</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>21053</v>
+        <v>21100</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002276918126978898</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0009898332975318124</v>
+        <v>0.0009336701756871165</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004673811931364453</v>
+        <v>0.004684163105698282</v>
       </c>
     </row>
     <row r="41">
@@ -6665,19 +6665,19 @@
         <v>16574</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9459</v>
+        <v>9327</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27561</v>
+        <v>28867</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007489550342201109</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004274186729666438</v>
+        <v>0.004214685772646739</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01245437907989638</v>
+        <v>0.01304453871829101</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>49</v>
@@ -6686,19 +6686,19 @@
         <v>57892</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>44789</v>
+        <v>43313</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>78890</v>
+        <v>76514</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0252633989628746</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01954541603934339</v>
+        <v>0.01890097469422991</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03442643319476714</v>
+        <v>0.03338969315125133</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>64</v>
@@ -6707,19 +6707,19 @@
         <v>74467</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>56834</v>
+        <v>56764</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>93604</v>
+        <v>95852</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01653152526417282</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01261709503885872</v>
+        <v>0.0126015791984933</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02077990714783375</v>
+        <v>0.02127908965705414</v>
       </c>
     </row>
     <row r="42">
@@ -6736,19 +6736,19 @@
         <v>21917</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13828</v>
+        <v>13416</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>34417</v>
+        <v>33665</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009904054782636026</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006248611285763616</v>
+        <v>0.006062643660316307</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01555224744891788</v>
+        <v>0.01521254801831183</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -6757,19 +6757,19 @@
         <v>9686</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3910</v>
+        <v>3867</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>20299</v>
+        <v>19168</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.004226690017748246</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001706138692982574</v>
+        <v>0.001687467346077703</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.008858135321663916</v>
+        <v>0.008364806932910781</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>28</v>
@@ -6778,19 +6778,19 @@
         <v>31603</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20801</v>
+        <v>21447</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>43611</v>
+        <v>46420</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.007015845767100034</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004617785260523977</v>
+        <v>0.004761208053956012</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009681551415995412</v>
+        <v>0.01030523452726941</v>
       </c>
     </row>
     <row r="43">
@@ -6807,19 +6807,19 @@
         <v>963451</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>914299</v>
+        <v>914906</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1009065</v>
+        <v>1012932</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4353665207672515</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.413155594100915</v>
+        <v>0.4134300927881592</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4559787934145794</v>
+        <v>0.4577262455536648</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -6828,19 +6828,19 @@
         <v>4039</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>11093</v>
+        <v>11847</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001762654937366909</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0004516302869710632</v>
+        <v>0.0004522162121675466</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.004840946509864512</v>
+        <v>0.005169858358593963</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>906</v>
@@ -6849,19 +6849,19 @@
         <v>967490</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>911802</v>
+        <v>912368</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1019439</v>
+        <v>1026282</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2147820337167907</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2024192894603819</v>
+        <v>0.2025450523477382</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2263147182678281</v>
+        <v>0.2278337852184942</v>
       </c>
     </row>
     <row r="44">
@@ -6878,19 +6878,19 @@
         <v>124428</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>101270</v>
+        <v>104489</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>150232</v>
+        <v>147913</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05622695228014151</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04576214621746504</v>
+        <v>0.04721655847093346</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06788713797416299</v>
+        <v>0.06683920174083219</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>502</v>
@@ -6899,19 +6899,19 @@
         <v>539615</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>498558</v>
+        <v>502690</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>582307</v>
+        <v>586524</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2354796640765356</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2175630535474209</v>
+        <v>0.2193663365220342</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2541099450960167</v>
+        <v>0.2559500851269124</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>612</v>
@@ -6920,19 +6920,19 @@
         <v>664043</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>616687</v>
+        <v>618973</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>715698</v>
+        <v>718356</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.147417023679377</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1369040217350327</v>
+        <v>0.137411587069364</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1588844329587111</v>
+        <v>0.1594745052767472</v>
       </c>
     </row>
     <row r="45">
@@ -6949,19 +6949,19 @@
         <v>6819</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2864</v>
+        <v>2892</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>12769</v>
+        <v>13527</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.003081539689729342</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001294087258917533</v>
+        <v>0.001306865630302923</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.005770095444742035</v>
+        <v>0.006112627847442633</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -6970,19 +6970,19 @@
         <v>3311</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9786</v>
+        <v>9693</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001444844574972835</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0004320532820039897</v>
+        <v>0.0004305674868893741</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.004270556303095024</v>
+        <v>0.004229775924256586</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>10</v>
@@ -6991,19 +6991,19 @@
         <v>10130</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5145</v>
+        <v>5048</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>17582</v>
+        <v>18324</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.00224891438170637</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.001142225379485314</v>
+        <v>0.001120655170394288</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.00390318010966293</v>
+        <v>0.004067812041208625</v>
       </c>
     </row>
     <row r="46">
@@ -7020,19 +7020,19 @@
         <v>280759</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>249768</v>
+        <v>252010</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>313625</v>
+        <v>320149</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1268701117522707</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1128657665353993</v>
+        <v>0.1138789320026888</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1417214254408375</v>
+        <v>0.1446695367862486</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>292</v>
@@ -7041,19 +7041,19 @@
         <v>317195</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>286454</v>
+        <v>285355</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>351427</v>
+        <v>350450</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1384189460487218</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1250043863605133</v>
+        <v>0.1245247262942918</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.153357437513142</v>
+        <v>0.1529311339636082</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>552</v>
@@ -7062,19 +7062,19 @@
         <v>597954</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>549637</v>
+        <v>552597</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>647303</v>
+        <v>647589</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1327452754444526</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1220190040556708</v>
+        <v>0.1226760682595207</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.143700877412315</v>
+        <v>0.1437643083773838</v>
       </c>
     </row>
     <row r="47">
@@ -7091,19 +7091,19 @@
         <v>792692</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>746009</v>
+        <v>742751</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>846237</v>
+        <v>836023</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3582034750225059</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3371082548974326</v>
+        <v>0.335636019163283</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.382399601711052</v>
+        <v>0.3777842067243294</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1250</v>
@@ -7112,19 +7112,19 @@
         <v>1355885</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1305279</v>
+        <v>1305421</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1401942</v>
+        <v>1399331</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5916878388762734</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5696042359532474</v>
+        <v>0.5696658835699411</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.611786218159615</v>
+        <v>0.610646801437412</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1983</v>
@@ -7133,19 +7133,19 @@
         <v>2148577</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2074358</v>
+        <v>2081087</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2216686</v>
+        <v>2219578</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4769824636194216</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4605057930849399</v>
+        <v>0.4619996529447443</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4921026679423204</v>
+        <v>0.492744684188099</v>
       </c>
     </row>
     <row r="48">
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6430</v>
+        <v>6853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0048926839745456</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01495878248887369</v>
+        <v>0.01594336363159432</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4800</v>
+        <v>5553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002134174120031551</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01120488379750405</v>
+        <v>0.01296448843575238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7519,19 +7519,19 @@
         <v>3017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8288</v>
+        <v>8789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003515806044231254</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001063286568389972</v>
+        <v>0.001065491697867888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009657880990419528</v>
+        <v>0.01024177484170401</v>
       </c>
     </row>
     <row r="5">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7664</v>
+        <v>7363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004974014097754603</v>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01783037652946703</v>
+        <v>0.01713052041609355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7569,19 +7569,19 @@
         <v>4521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9904</v>
+        <v>9502</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01055525191548337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00397726998933992</v>
+        <v>0.003929503043615255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0231219710360584</v>
+        <v>0.02218253998659974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -7590,19 +7590,19 @@
         <v>6659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2989</v>
+        <v>2904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13509</v>
+        <v>14635</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007759823676245418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003483248232612049</v>
+        <v>0.003383694942492671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01574096503906482</v>
+        <v>0.01705364899264594</v>
       </c>
     </row>
     <row r="6">
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6348</v>
+        <v>6310</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004180243148289841</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01476897216835078</v>
+        <v>0.01468047188779055</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6370</v>
+        <v>6306</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002093723672997994</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007422066328686062</v>
+        <v>0.007347506774374928</v>
       </c>
     </row>
     <row r="7">
@@ -7682,19 +7682,19 @@
         <v>188062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166145</v>
+        <v>167267</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>208399</v>
+        <v>208971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4375226685518972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3865328514273871</v>
+        <v>0.3891430929829982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4848370656989746</v>
+        <v>0.4861658374196589</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6040</v>
+        <v>6016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002813134793652777</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01410092629589841</v>
+        <v>0.01404499717863908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>184</v>
@@ -7724,19 +7724,19 @@
         <v>189267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167085</v>
+        <v>165735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216846</v>
+        <v>213043</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2205424891447051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1946951848416182</v>
+        <v>0.1931222557234179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2526787668173359</v>
+        <v>0.2482467963857012</v>
       </c>
     </row>
     <row r="8">
@@ -7753,19 +7753,19 @@
         <v>25292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17265</v>
+        <v>17553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35796</v>
+        <v>35353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05884030541819482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04016626309090183</v>
+        <v>0.04083627007821495</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08327757811077539</v>
+        <v>0.08224899425306045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>121</v>
@@ -7774,19 +7774,19 @@
         <v>130068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109906</v>
+        <v>112647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148010</v>
+        <v>150212</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3036451800567804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2565765795285359</v>
+        <v>0.2629768960423531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3455303823521887</v>
+        <v>0.350672762198967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -7795,19 +7795,19 @@
         <v>155359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133426</v>
+        <v>133739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179862</v>
+        <v>182087</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1810317953531176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1554735193592579</v>
+        <v>0.1558389483120939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2095827660327933</v>
+        <v>0.2121756847704733</v>
       </c>
     </row>
     <row r="9">
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4230</v>
+        <v>4239</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001972330389002469</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009875950270606941</v>
+        <v>0.009894940416870505</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4271</v>
+        <v>5091</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.000984465645269268</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00497679275942244</v>
+        <v>0.005932722745744864</v>
       </c>
     </row>
     <row r="10">
@@ -7887,19 +7887,19 @@
         <v>87374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69634</v>
+        <v>71679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105190</v>
+        <v>106655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2032733413398527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.162002331191919</v>
+        <v>0.1667606846895992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2447224266983535</v>
+        <v>0.2481311291239698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -7908,19 +7908,19 @@
         <v>72186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57334</v>
+        <v>58256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87727</v>
+        <v>90346</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1685189072829582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1338463698766714</v>
+        <v>0.1360004453820927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2047995541596744</v>
+        <v>0.2109146401402412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -7929,19 +7929,19 @@
         <v>159560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138424</v>
+        <v>138261</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184886</v>
+        <v>182777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1859260720686566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1612975772762373</v>
+        <v>0.161107387745152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2154371740485272</v>
+        <v>0.2129795379681745</v>
       </c>
     </row>
     <row r="11">
@@ -7958,19 +7958,19 @@
         <v>123069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104317</v>
+        <v>104701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141777</v>
+        <v>142682</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2863167434694652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2426920472052997</v>
+        <v>0.2435837484382645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3298409419272957</v>
+        <v>0.331947025819069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -7979,19 +7979,19 @@
         <v>218616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>197963</v>
+        <v>197557</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>238802</v>
+        <v>238525</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5103610214420912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4621467546519719</v>
+        <v>0.4611986967179078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5574870843530446</v>
+        <v>0.5568388010788805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>338</v>
@@ -8000,19 +8000,19 @@
         <v>341684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>310990</v>
+        <v>313999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>369390</v>
+        <v>371584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3981458243947769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3623798274316408</v>
+        <v>0.3658857697608002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4304295450111343</v>
+        <v>0.4329862306367919</v>
       </c>
     </row>
     <row r="12">
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4156</v>
+        <v>4165</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001289024718800019</v>
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006473974386997598</v>
+        <v>0.00648795411088248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -8125,19 +8125,19 @@
         <v>3067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9121</v>
+        <v>8595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004444691956896252</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001300281692000312</v>
+        <v>0.00130476609001252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01321884499043439</v>
+        <v>0.01245533519023541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -8146,19 +8146,19 @@
         <v>3894</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>985</v>
+        <v>907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9636</v>
+        <v>10031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00292385847752905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0007396643858757549</v>
+        <v>0.0006806274707360682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007234193466176445</v>
+        <v>0.007531402937383333</v>
       </c>
     </row>
     <row r="14">
@@ -8175,19 +8175,19 @@
         <v>9479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4015</v>
+        <v>3999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19314</v>
+        <v>18513</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01476672105119631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006255075926503068</v>
+        <v>0.00622953776991915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03008785248012453</v>
+        <v>0.02884084468673478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -8196,19 +8196,19 @@
         <v>8996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4193</v>
+        <v>4282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16911</v>
+        <v>17346</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01303774245813904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006076087639026317</v>
+        <v>0.006205030910609812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02450709612308839</v>
+        <v>0.02513815767726748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -8217,19 +8217,19 @@
         <v>18475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10825</v>
+        <v>10723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30208</v>
+        <v>29195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01387100158561822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008127130875549719</v>
+        <v>0.008050875167200417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0226794327844863</v>
+        <v>0.02191877337874092</v>
       </c>
     </row>
     <row r="15">
@@ -8246,19 +8246,19 @@
         <v>5383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1976</v>
+        <v>1938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12353</v>
+        <v>11976</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008385286881371162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003078359498953495</v>
+        <v>0.003018786599203961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01924447084768449</v>
+        <v>0.01865658882870349</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7661</v>
+        <v>7699</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002226125349868946</v>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01110239596090277</v>
+        <v>0.01115739584252538</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -8288,19 +8288,19 @@
         <v>6919</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2551</v>
+        <v>2884</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14609</v>
+        <v>14326</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005194454503480892</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001915553562284888</v>
+        <v>0.002165195863302621</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01096789738810464</v>
+        <v>0.01075584807819272</v>
       </c>
     </row>
     <row r="16">
@@ -8317,19 +8317,19 @@
         <v>286003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>262699</v>
+        <v>261272</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312664</v>
+        <v>312649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4455476199470048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4092434624071394</v>
+        <v>0.4070213237466644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4870809171182921</v>
+        <v>0.4870578753911882</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6499</v>
+        <v>4872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001572054873190366</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009418510240546399</v>
+        <v>0.007059937459512027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>270</v>
@@ -8359,19 +8359,19 @@
         <v>287088</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>255521</v>
+        <v>256182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316134</v>
+        <v>319001</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.215540402116474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1918405598508595</v>
+        <v>0.1923373381778169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2373483260876021</v>
+        <v>0.2395004202586792</v>
       </c>
     </row>
     <row r="17">
@@ -8388,19 +8388,19 @@
         <v>21055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13745</v>
+        <v>12409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31615</v>
+        <v>32859</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03280078929938222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02141314130988057</v>
+        <v>0.01933052978079009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04925054995457719</v>
+        <v>0.05118896216632769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -8409,19 +8409,19 @@
         <v>173474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151696</v>
+        <v>150415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200010</v>
+        <v>198749</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2514013722371644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2198390182151598</v>
+        <v>0.2179838743224602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2898575220911065</v>
+        <v>0.2880294248576146</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -8430,19 +8430,19 @@
         <v>194530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168444</v>
+        <v>170343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>222966</v>
+        <v>224694</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1460496161560856</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.126464498953167</v>
+        <v>0.1278902504521303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1673987975920127</v>
+        <v>0.1686964998316552</v>
       </c>
     </row>
     <row r="18">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5030</v>
+        <v>5091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00157175162934006</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.007836461494404381</v>
+        <v>0.007930808450811854</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6342</v>
+        <v>5375</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001546473409060346</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009190984276698158</v>
+        <v>0.007788854932848263</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6396</v>
+        <v>7295</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001558655924135478</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.004801668270448525</v>
+        <v>0.00547722703048434</v>
       </c>
     </row>
     <row r="19">
@@ -8530,19 +8530,19 @@
         <v>106472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88238</v>
+        <v>89082</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127908</v>
+        <v>127727</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.165867048802451</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1374617193254462</v>
+        <v>0.1387764388696083</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1992612038790118</v>
+        <v>0.1989789738197536</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -8551,19 +8551,19 @@
         <v>101613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85279</v>
+        <v>82784</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>120799</v>
+        <v>120657</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1472591465837055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1235875104294775</v>
+        <v>0.1199717039055807</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1750628808697706</v>
+        <v>0.1748582674319328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>195</v>
@@ -8572,19 +8572,19 @@
         <v>208085</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>182331</v>
+        <v>183109</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234644</v>
+        <v>235264</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1562269871511197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.136890977712329</v>
+        <v>0.1374748142356976</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1761664336982154</v>
+        <v>0.1766318724086731</v>
       </c>
     </row>
     <row r="20">
@@ -8601,19 +8601,19 @@
         <v>211685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189045</v>
+        <v>185947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238143</v>
+        <v>236251</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3297717576704545</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2945026189221419</v>
+        <v>0.2896769623131644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3709888396131249</v>
+        <v>0.368041367859661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>384</v>
@@ -8622,19 +8622,19 @@
         <v>399191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>372307</v>
+        <v>372484</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425987</v>
+        <v>426213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5785123931319752</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5395513468975967</v>
+        <v>0.5398077638445871</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6173460790819628</v>
+        <v>0.617672778227774</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>574</v>
@@ -8643,19 +8643,19 @@
         <v>610876</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>574453</v>
+        <v>573998</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>649212</v>
+        <v>647794</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.458635024085557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4312894195187363</v>
+        <v>0.4309482213771353</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.487417085431217</v>
+        <v>0.4863523684799932</v>
       </c>
     </row>
     <row r="21">
@@ -8760,19 +8760,19 @@
         <v>3040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8552</v>
+        <v>8462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006417743546145582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001980439156002911</v>
+        <v>0.001986042851794039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01805336932357894</v>
+        <v>0.01786341777272744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -8781,19 +8781,19 @@
         <v>3040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8472</v>
+        <v>9536</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003174618759052902</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009807596759503299</v>
+        <v>0.0009846009966072544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008847343387623954</v>
+        <v>0.009957826086528957</v>
       </c>
     </row>
     <row r="23">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7253</v>
+        <v>6336</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004308661815645438</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0149881811681944</v>
+        <v>0.01309226542660829</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -8831,19 +8831,19 @@
         <v>4050</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10112</v>
+        <v>9335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008549835944538217</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002192013745076416</v>
+        <v>0.002092801018536195</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02134645032968704</v>
+        <v>0.01970740655898951</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -8852,19 +8852,19 @@
         <v>6135</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2959</v>
+        <v>2027</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13313</v>
+        <v>13504</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006406612731443444</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003090049711640103</v>
+        <v>0.002117004983336875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01390244784608998</v>
+        <v>0.01410167406365144</v>
       </c>
     </row>
     <row r="24">
@@ -8881,19 +8881,19 @@
         <v>3080</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8320</v>
+        <v>9245</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006363719405933416</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00208956961995021</v>
+        <v>0.002095849273703444</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01719204630623657</v>
+        <v>0.0191039120289319</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6638</v>
+        <v>6621</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004001167430261367</v>
@@ -8914,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01401368081863498</v>
+        <v>0.01397734757413016</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -8923,19 +8923,19 @@
         <v>4975</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10957</v>
+        <v>11061</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005195052916336693</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002047933973501739</v>
+        <v>0.002039373821165353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01144166270722916</v>
+        <v>0.01155092753165621</v>
       </c>
     </row>
     <row r="25">
@@ -8952,19 +8952,19 @@
         <v>251230</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>226892</v>
+        <v>226618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>272618</v>
+        <v>273780</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.519155372437529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4688607283959815</v>
+        <v>0.4682951949383525</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5633520031672994</v>
+        <v>0.5657526054580616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5048</v>
+        <v>5009</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002120150756589511</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01065607723702714</v>
+        <v>0.01057423386776472</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>235</v>
@@ -8994,19 +8994,19 @@
         <v>252234</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223835</v>
+        <v>225606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>280344</v>
+        <v>280107</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2633973007668116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2337411533477512</v>
+        <v>0.2355908693240869</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2927515118707337</v>
+        <v>0.2925041007479873</v>
       </c>
     </row>
     <row r="26">
@@ -9023,19 +9023,19 @@
         <v>12634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6653</v>
+        <v>7190</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19617</v>
+        <v>20945</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02610790049163637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01374805676426569</v>
+        <v>0.01485698443285417</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0405378250840726</v>
+        <v>0.04328127697413047</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -9044,19 +9044,19 @@
         <v>116515</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97004</v>
+        <v>98905</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135785</v>
+        <v>138072</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2459683235625563</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2047797795252669</v>
+        <v>0.2087930296321203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.286648124200523</v>
+        <v>0.2914768018683699</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -9065,19 +9065,19 @@
         <v>129149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108391</v>
+        <v>106391</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152830</v>
+        <v>150413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1348646649892523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1131884060716173</v>
+        <v>0.1110990336666666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1595938890170402</v>
+        <v>0.1570700623827191</v>
       </c>
     </row>
     <row r="27">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6091</v>
+        <v>7051</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.004240301513179021</v>
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0128575291463446</v>
+        <v>0.01488528024241761</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7048</v>
+        <v>7051</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002097519265297418</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.007360414160878072</v>
+        <v>0.007363191996136316</v>
       </c>
     </row>
     <row r="28">
@@ -9157,19 +9157,19 @@
         <v>71114</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56170</v>
+        <v>55506</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88355</v>
+        <v>88202</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1469544363361581</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1160722322752849</v>
+        <v>0.1147015341935549</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1825819205764009</v>
+        <v>0.1822660016852459</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -9178,19 +9178,19 @@
         <v>69777</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56029</v>
+        <v>55229</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>86095</v>
+        <v>85949</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1473022152726981</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1182795612110098</v>
+        <v>0.1165912986296372</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1817504444221519</v>
+        <v>0.1814423032500314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>133</v>
@@ -9199,19 +9199,19 @@
         <v>140891</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>119573</v>
+        <v>118190</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>163985</v>
+        <v>163439</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1471264696260527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1248648171457264</v>
+        <v>0.1234208646715835</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.171241988318667</v>
+        <v>0.1706724321387285</v>
       </c>
     </row>
     <row r="29">
@@ -9228,19 +9228,19 @@
         <v>143778</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>123284</v>
+        <v>124036</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>165258</v>
+        <v>166652</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2971099095130977</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2547612326363483</v>
+        <v>0.256313765148802</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3414986855567563</v>
+        <v>0.3443784769166469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>267</v>
@@ -9249,19 +9249,19 @@
         <v>275409</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>254071</v>
+        <v>252895</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>298090</v>
+        <v>298311</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5814002619740319</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5363551453297752</v>
+        <v>0.5338717369188177</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6292813237746312</v>
+        <v>0.6297477073668359</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>394</v>
@@ -9270,19 +9270,19 @@
         <v>419186</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>387696</v>
+        <v>389057</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>449841</v>
+        <v>449793</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.437737760945753</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4048542520155178</v>
+        <v>0.4062756709152203</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4697493505979128</v>
+        <v>0.4696992273586101</v>
       </c>
     </row>
     <row r="30">
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9752</v>
+        <v>9271</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004086317400718501</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0163890810149326</v>
+        <v>0.0155820879293161</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7767</v>
+        <v>7780</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004080455170118659</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01427785827266908</v>
+        <v>0.01430162331184538</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -9416,19 +9416,19 @@
         <v>4651</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11862</v>
+        <v>11220</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004083517537757856</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001015773752336993</v>
+        <v>0.00100928724917859</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.010414340926108</v>
+        <v>0.009850842655452064</v>
       </c>
     </row>
     <row r="32">
@@ -9445,19 +9445,19 @@
         <v>4273</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1579</v>
+        <v>1029</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11585</v>
+        <v>12001</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.00718140728337452</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002653038456350081</v>
+        <v>0.001729732729800717</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01947123974393973</v>
+        <v>0.02016926084722181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -9466,19 +9466,19 @@
         <v>5117</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1996</v>
+        <v>1950</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12359</v>
+        <v>11462</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009405991085369292</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003669181771444683</v>
+        <v>0.00358415885063169</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02271932090868176</v>
+        <v>0.02107066953349915</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9487,19 +9487,19 @@
         <v>9390</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4635</v>
+        <v>4398</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17135</v>
+        <v>17461</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008243891892940126</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004069117729309045</v>
+        <v>0.003861533830434039</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01504358495158497</v>
+        <v>0.01533039921182933</v>
       </c>
     </row>
     <row r="33">
@@ -9516,19 +9516,19 @@
         <v>6834</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2878</v>
+        <v>2903</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13594</v>
+        <v>13043</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01148539879052701</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.004836289940728809</v>
+        <v>0.004878888018578111</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02284693565121806</v>
+        <v>0.02192169788599807</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6677</v>
+        <v>6683</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003485071352446359</v>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01227401241461786</v>
+        <v>0.01228520250671257</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -9558,19 +9558,19 @@
         <v>8730</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4020</v>
+        <v>4029</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15727</v>
+        <v>16355</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.007664358303392281</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00352898001206443</v>
+        <v>0.003536880921350614</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0138080070505108</v>
+        <v>0.01435951304412712</v>
       </c>
     </row>
     <row r="34">
@@ -9587,19 +9587,19 @@
         <v>252557</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>228467</v>
+        <v>231055</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>276448</v>
+        <v>278449</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4244644241489425</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3839776460552113</v>
+        <v>0.3883268876202168</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4646171454575903</v>
+        <v>0.4679806771782107</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9621,19 +9621,19 @@
         <v>252557</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>225038</v>
+        <v>226283</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>280915</v>
+        <v>278643</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2217357530321333</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1975745545749604</v>
+        <v>0.1986682866645201</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2466325477659857</v>
+        <v>0.2446378773025156</v>
       </c>
     </row>
     <row r="35">
@@ -9650,19 +9650,19 @@
         <v>33865</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23607</v>
+        <v>23480</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47029</v>
+        <v>45817</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05691524855492688</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0396749140935548</v>
+        <v>0.03946161563897787</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07903970831125434</v>
+        <v>0.07700265557052632</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>129</v>
@@ -9671,19 +9671,19 @@
         <v>149373</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>127515</v>
+        <v>128081</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>172454</v>
+        <v>173418</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2745840226266652</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2344028870425477</v>
+        <v>0.235444238633299</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3170116876606293</v>
+        <v>0.3187839293846621</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>165</v>
@@ -9692,19 +9692,19 @@
         <v>183238</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>159092</v>
+        <v>159308</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>208936</v>
+        <v>211416</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1608761432745849</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1396772181540427</v>
+        <v>0.1398664086513818</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1834380943427651</v>
+        <v>0.1856151152376991</v>
       </c>
     </row>
     <row r="36">
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6275</v>
+        <v>5700</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003001897727247992</v>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01054621450042552</v>
+        <v>0.00957945559752952</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5597</v>
+        <v>6265</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0015681598155402</v>
@@ -9767,7 +9767,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004914109655419567</v>
+        <v>0.005500501966638436</v>
       </c>
     </row>
     <row r="37">
@@ -9784,19 +9784,19 @@
         <v>73307</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>57674</v>
+        <v>59730</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>89199</v>
+        <v>90327</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1232053842144383</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09693060295251267</v>
+        <v>0.1003864189718929</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1499143054962517</v>
+        <v>0.1518090272850309</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>60</v>
@@ -9805,19 +9805,19 @@
         <v>64807</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50811</v>
+        <v>50139</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81809</v>
+        <v>82882</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1191301903983029</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09340353928703871</v>
+        <v>0.0921670943090165</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1503845464729008</v>
+        <v>0.1523565422268116</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>133</v>
@@ -9826,19 +9826,19 @@
         <v>138114</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>117634</v>
+        <v>114740</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>160070</v>
+        <v>160337</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1212590288077513</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1032785240333515</v>
+        <v>0.1007372118097939</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.140535306488106</v>
+        <v>0.1407699692487418</v>
       </c>
     </row>
     <row r="38">
@@ -9855,19 +9855,19 @@
         <v>219948</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>196680</v>
+        <v>195959</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>244402</v>
+        <v>244272</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3696599218798243</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3305536835662329</v>
+        <v>0.3293418877102183</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4107575803947516</v>
+        <v>0.4105395149860558</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>307</v>
@@ -9876,19 +9876,19 @@
         <v>320586</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>295611</v>
+        <v>295634</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>345685</v>
+        <v>343094</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5893142693670975</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5434038526629651</v>
+        <v>0.5434459430182287</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6354518749978236</v>
+        <v>0.6306889221037094</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>516</v>
@@ -9897,19 +9897,19 @@
         <v>540535</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>508328</v>
+        <v>507350</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>575161</v>
+        <v>576935</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4745691473359</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4462925327668554</v>
+        <v>0.4454345524193686</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5049700134111621</v>
+        <v>0.5065271306267957</v>
       </c>
     </row>
     <row r="39">
@@ -10001,19 +10001,19 @@
         <v>5362</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12889</v>
+        <v>13321</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002493107471357523</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0008962579235907358</v>
+        <v>0.0008997681410496231</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.00599308760911751</v>
+        <v>0.006193954531865276</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -10022,19 +10022,19 @@
         <v>9241</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4217</v>
+        <v>4126</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16389</v>
+        <v>17029</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004326141223648113</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001974213826469593</v>
+        <v>0.001931749544581624</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007672632515781282</v>
+        <v>0.007972130714748718</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -10043,19 +10043,19 @@
         <v>14603</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>7371</v>
+        <v>8242</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23746</v>
+        <v>23978</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003406505578241703</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001719494523226717</v>
+        <v>0.001922677247412332</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005539485335631241</v>
+        <v>0.005593456262957902</v>
       </c>
     </row>
     <row r="41">
@@ -10072,19 +10072,19 @@
         <v>17975</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9849</v>
+        <v>10849</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30840</v>
+        <v>28673</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00835783971029589</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004579436143611252</v>
+        <v>0.005044545261222178</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01433984759436127</v>
+        <v>0.01333221745998971</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -10093,19 +10093,19 @@
         <v>22685</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>14464</v>
+        <v>14959</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>33219</v>
+        <v>33263</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01061977838937616</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006771072333157828</v>
+        <v>0.007002998239836095</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01555139035026074</v>
+        <v>0.01557174761669336</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -10114,19 +10114,19 @@
         <v>40660</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>28856</v>
+        <v>28206</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>55437</v>
+        <v>55324</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00948496053105451</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006731481334904696</v>
+        <v>0.006579897095882683</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0129320882138646</v>
+        <v>0.01290576434562331</v>
       </c>
     </row>
     <row r="42">
@@ -10143,19 +10143,19 @@
         <v>17093</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9988</v>
+        <v>10070</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26062</v>
+        <v>26907</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.007947667239959377</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004643968216645241</v>
+        <v>0.004682219733140357</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01211826310989493</v>
+        <v>0.01251076395367242</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -10164,19 +10164,19 @@
         <v>5327</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1857</v>
+        <v>1869</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11645</v>
+        <v>11619</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.002493965451929823</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0008694483391149319</v>
+        <v>0.0008750976410441281</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.005451685198724311</v>
+        <v>0.005439293805320501</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>22</v>
@@ -10185,19 +10185,19 @@
         <v>22420</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>14785</v>
+        <v>13813</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>35183</v>
+        <v>33015</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.005230095409941398</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003448971249372212</v>
+        <v>0.003222307991518739</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.008207402696671084</v>
+        <v>0.007701625674314967</v>
       </c>
     </row>
     <row r="43">
@@ -10214,19 +10214,19 @@
         <v>977852</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>929370</v>
+        <v>934398</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1022995</v>
+        <v>1028150</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4546733230012605</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4321304208675604</v>
+        <v>0.4344686229171631</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4756637406828053</v>
+        <v>0.4780606162440825</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -10235,19 +10235,19 @@
         <v>3294</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>8916</v>
+        <v>8919</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001542121025385774</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0004684559130108996</v>
+        <v>0.0004688968827488362</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.004173982280063734</v>
+        <v>0.004175309455147776</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>950</v>
@@ -10256,19 +10256,19 @@
         <v>981146</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>930639</v>
+        <v>920814</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1043937</v>
+        <v>1040755</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2288786907214598</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2170964802605237</v>
+        <v>0.2148046735859307</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2435262796749629</v>
+        <v>0.2427842125668963</v>
       </c>
     </row>
     <row r="44">
@@ -10285,19 +10285,19 @@
         <v>92846</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>75424</v>
+        <v>75683</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>111683</v>
+        <v>113727</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04317057984401987</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03506982678675559</v>
+        <v>0.03519066373179643</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05192939566184343</v>
+        <v>0.05288001209956741</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>497</v>
@@ -10306,19 +10306,19 @@
         <v>569431</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>525584</v>
+        <v>527924</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>614088</v>
+        <v>616917</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2665770958739195</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2460506651054262</v>
+        <v>0.2471459892237235</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2874834871653188</v>
+        <v>0.2888078542480632</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>593</v>
@@ -10327,19 +10327,19 @@
         <v>662276</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>609007</v>
+        <v>610984</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>709665</v>
+        <v>705168</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1544937284506971</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.142067277098117</v>
+        <v>0.1425284024910825</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1655485529220797</v>
+        <v>0.1644995188433638</v>
       </c>
     </row>
     <row r="45">
@@ -10356,19 +10356,19 @@
         <v>2795</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7624</v>
+        <v>7128</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.001299624657564673</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0004128262967144514</v>
+        <v>0.0004140562869450342</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.003544868360635685</v>
+        <v>0.003314245969641257</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4</v>
@@ -10377,19 +10377,19 @@
         <v>3921</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9075</v>
+        <v>9909</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001835413939488852</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0004691775654663936</v>
+        <v>0.0004698333219001534</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.004248457443698966</v>
+        <v>0.004638823886821234</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7</v>
@@ -10398,19 +10398,19 @@
         <v>6716</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2896</v>
+        <v>2988</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>13034</v>
+        <v>13481</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001566607693303557</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0006755044625471834</v>
+        <v>0.0006969757958055286</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003040511549582874</v>
+        <v>0.003144744697703955</v>
       </c>
     </row>
     <row r="46">
@@ -10427,19 +10427,19 @@
         <v>338268</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>303608</v>
+        <v>307427</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>372933</v>
+        <v>375372</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.157284839976344</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1411689508268774</v>
+        <v>0.1429448964988224</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1734030458285711</v>
+        <v>0.1745375056713813</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>299</v>
@@ -10448,19 +10448,19 @@
         <v>308383</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>277796</v>
+        <v>278752</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>343272</v>
+        <v>340802</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.144368342220517</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1300491543441843</v>
+        <v>0.1304970465069733</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1607016337861639</v>
+        <v>0.1595452251918121</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>616</v>
@@ -10469,19 +10469,19 @@
         <v>646650</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>598862</v>
+        <v>600682</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>694547</v>
+        <v>696804</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1508485675492797</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1397007549337159</v>
+        <v>0.1401253129654793</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1620216862813611</v>
+        <v>0.1625482544545543</v>
       </c>
     </row>
     <row r="47">
@@ -10498,19 +10498,19 @@
         <v>698479</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>651919</v>
+        <v>656505</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>742718</v>
+        <v>743606</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3247730180991982</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3031236836872008</v>
+        <v>0.3052562169087615</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3453425780310777</v>
+        <v>0.3457556902923539</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1182</v>
@@ -10519,19 +10519,19 @@
         <v>1213801</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1163659</v>
+        <v>1168808</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1254777</v>
+        <v>1262295</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5682371418757347</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5447634651753281</v>
+        <v>0.5471738881026132</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5874198903327404</v>
+        <v>0.5909393168679099</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1822</v>
@@ -10540,19 +10540,19 @@
         <v>1912280</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1844612</v>
+        <v>1850190</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1983348</v>
+        <v>1978384</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4460908440660222</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4303052864175293</v>
+        <v>0.4316066904918829</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4626692838599746</v>
+        <v>0.4615112664800907</v>
       </c>
     </row>
     <row r="48">
